--- a/Project.xlsx
+++ b/Project.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombad\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombad\OneDrive\Documents\GitHub\Veh_Safety_CAN_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD1C11A-CA45-48E3-A56B-DC6C63BF6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567F7A8-8E59-402C-81A7-F870C914FF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CF6FD7CF-D63D-43E8-81D0-E7C0115A0145}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{CF6FD7CF-D63D-43E8-81D0-E7C0115A0145}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Date </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Group Members</t>
   </si>
@@ -57,21 +53,12 @@
     <t>Interfacing of STM32F407 with LM35</t>
   </si>
   <si>
-    <t>Find Rain Water sensor(LM393) configuration with STM32F407</t>
-  </si>
-  <si>
     <t>IoT connection with ESP8266</t>
   </si>
   <si>
     <t>Searching abot CAN protocol</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sanket Lonkar</t>
-  </si>
-  <si>
-    <t>component Discussion</t>
-  </si>
-  <si>
     <t>Circuit and  and also refer on refernce paper</t>
   </si>
   <si>
@@ -94,13 +81,16 @@
   </si>
   <si>
     <t>Read CAN Protocol with STM32F407</t>
+  </si>
+  <si>
+    <t>Make a Block Diagram of Master and Slave Node. (Blueprint) and on git with name "Blockdiagram-1".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +101,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,48 +205,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -272,6 +230,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,560 +550,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2408FF01-95F1-4B4F-8AD6-8AD253F11F55}">
-  <dimension ref="A1:W9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07309C4B-15A6-456A-BFB2-FA2B510AC754}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45271</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07309C4B-15A6-456A-BFB2-FA2B510AC754}">
-  <dimension ref="A1:U34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="44.77734375" customWidth="1"/>
     <col min="4" max="4" width="44.5546875" customWidth="1"/>
     <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>45237</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>45238</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>45239</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>45240</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>45241</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>45242</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>45243</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>45244</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>45245</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>45237</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>45246</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>45247</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>45248</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>45249</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>45250</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>45238</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>45239</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>45240</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>45241</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>45242</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>45243</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>45244</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>45245</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>45246</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>45247</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>45248</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>45249</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>45250</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="6">
         <v>45251</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="6">
         <v>45252</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="6">
         <v>45253</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="6">
         <v>45254</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="6">
         <v>45255</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="6">
         <v>45256</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="6">
         <v>45257</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="6">
         <v>45258</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="6">
         <v>45259</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="6">
         <v>45260</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="6">
         <v>45261</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="6">
         <v>45262</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+      <c r="A30" s="6">
         <v>45263</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="6">
         <v>45264</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="6">
         <v>45265</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="6">
         <v>45266</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombad\OneDrive\Documents\GitHub\Veh_Safety_CAN_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567F7A8-8E59-402C-81A7-F870C914FF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D354CC6B-AF6E-4DBF-A82B-04A1E649C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{CF6FD7CF-D63D-43E8-81D0-E7C0115A0145}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF6FD7CF-D63D-43E8-81D0-E7C0115A0145}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Group Members</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Circuit and  and also refer on refernce paper</t>
   </si>
   <si>
-    <t>Data Sheet</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -83,14 +80,20 @@
     <t>Read CAN Protocol with STM32F407</t>
   </si>
   <si>
-    <t>Make a Block Diagram of Master and Slave Node. (Blueprint) and on git with name "Blockdiagram-1".</t>
+    <t>Made a Block Diagram of Master and Slave Node. (Blueprint) and on git with name "Blockdiagram-1".</t>
+  </si>
+  <si>
+    <t>Progress Report</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,12 +108,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Britannic Bold"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -161,12 +158,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -174,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,24 +202,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -231,10 +225,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,13 +547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07309C4B-15A6-456A-BFB2-FA2B510AC754}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="44.77734375" customWidth="1"/>
     <col min="4" max="4" width="44.5546875" customWidth="1"/>
@@ -568,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -577,17 +571,19 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,15 +594,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45237</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45237</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -619,24 +615,24 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45239</v>
       </c>
       <c r="B6" s="3"/>
@@ -645,7 +641,7 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45240</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -656,18 +652,18 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45241</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45242</v>
       </c>
       <c r="B9" s="3"/>
@@ -676,7 +672,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45243</v>
       </c>
       <c r="B10" s="3"/>
@@ -687,7 +683,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45244</v>
       </c>
       <c r="B11" s="3"/>
@@ -698,24 +694,24 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45245</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45246</v>
       </c>
       <c r="B13" s="3"/>
@@ -724,7 +720,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45247</v>
       </c>
       <c r="B14" s="3"/>
@@ -733,7 +729,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45248</v>
       </c>
       <c r="B15" s="3"/>
@@ -742,7 +738,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45249</v>
       </c>
       <c r="B16" s="3"/>
@@ -751,18 +747,18 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45250</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45251</v>
       </c>
       <c r="B18" s="3"/>
@@ -771,7 +767,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45252</v>
       </c>
       <c r="B19" s="3"/>
@@ -780,7 +776,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45253</v>
       </c>
       <c r="B20" s="3"/>
@@ -789,7 +785,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>45254</v>
       </c>
       <c r="B21" s="3"/>
@@ -798,7 +794,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>45255</v>
       </c>
       <c r="B22" s="3"/>
@@ -807,7 +803,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>45256</v>
       </c>
       <c r="B23" s="3"/>
@@ -816,7 +812,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>45257</v>
       </c>
       <c r="B24" s="3"/>
@@ -825,7 +821,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>45258</v>
       </c>
       <c r="B25" s="3"/>
@@ -834,7 +830,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>45259</v>
       </c>
       <c r="B26" s="3"/>
@@ -843,7 +839,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>45260</v>
       </c>
       <c r="B27" s="3"/>
@@ -852,7 +848,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>45261</v>
       </c>
       <c r="B28" s="3"/>
@@ -861,7 +857,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>45262</v>
       </c>
       <c r="B29" s="3"/>
@@ -870,7 +866,7 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>45263</v>
       </c>
       <c r="B30" s="3"/>
@@ -879,7 +875,7 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>45264</v>
       </c>
       <c r="B31" s="3"/>
@@ -888,7 +884,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>45265</v>
       </c>
       <c r="B32" s="3"/>
@@ -897,7 +893,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>45266</v>
       </c>
       <c r="B33" s="3"/>
@@ -906,7 +902,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
